--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirokiinoue/git_repositories/EXAM_1Z0-809/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07651AC0-860A-3543-85B8-6307597DBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE617B4-5D70-4D65-A429-77A3FA95C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17000" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="1" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="examtopics.com Q1" sheetId="2" r:id="rId2"/>
+    <sheet name="examtopis.com Q2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>1.1</t>
   </si>
@@ -230,40 +232,46 @@
     <t>Description</t>
   </si>
   <si>
-    <t>1. Design Patterns and Principles</t>
-  </si>
-  <si>
-    <t>2. Advanced Class Design</t>
-  </si>
-  <si>
-    <t>3. Generics and Collections</t>
-  </si>
-  <si>
-    <t>7. Exception and Assertions</t>
-  </si>
-  <si>
-    <t>8. Dates</t>
-  </si>
-  <si>
-    <t>10. NIO.2</t>
-  </si>
-  <si>
-    <t>11. Concurrency</t>
-  </si>
-  <si>
-    <t>12. JDBC</t>
-  </si>
-  <si>
-    <t>13. Localization</t>
-  </si>
-  <si>
-    <t>4. Functional Programming()</t>
-  </si>
-  <si>
-    <t>5. Functional Programming()</t>
-  </si>
-  <si>
-    <t>6. Functional Programming()</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>12. JDBC (Chapter 10)</t>
+  </si>
+  <si>
+    <t>13. Localization (Chapter 5)</t>
+  </si>
+  <si>
+    <t>11. Concurrency (Chapter 7)</t>
+  </si>
+  <si>
+    <t>10. NIO.2 (Chpater 9)</t>
+  </si>
+  <si>
+    <t>8. Dates (Chapter 5)</t>
+  </si>
+  <si>
+    <t>7. Exception and Assertions (Chapter 6)</t>
+  </si>
+  <si>
+    <t>3. Generics and Collections (Chapter 3)</t>
+  </si>
+  <si>
+    <t>4. Functional Programming (Chpter 4)</t>
+  </si>
+  <si>
+    <t>5. Functional Programming (Chapter 4)</t>
+  </si>
+  <si>
+    <t>6. Functional Programming (Chapter 4)</t>
+  </si>
+  <si>
+    <t>2. Advanced Class Design (Chapter 1)</t>
+  </si>
+  <si>
+    <t>1. Design Patterns and Principles (Chapter 2)</t>
+  </si>
+  <si>
+    <t>penso che fosse una domanda simile come la domanda 2 di examtopics.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -360,17 +368,23 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,6 +401,438 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>580008</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>65917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6B3FF9-5BBF-50B2-6C64-637AC8E5F71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="7600950"/>
+          <a:ext cx="8133333" cy="6066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608581</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFD85D9-3488-DEC6-967D-8901A7FCA1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="8152381" cy="5876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266F3C56-BD20-1E16-7B53-B65E1B5FC887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="6200775"/>
+          <a:ext cx="8134350" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Velocity with new speed 1 kmph</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. A compilation error occurs at line n1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. A compilation error occurs at line n2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs at line n3.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618019</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180DE975-5EB8-4A48-495B-32BDE61CB27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7600950"/>
+          <a:ext cx="8847619" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522952</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC677B2B-4A86-A2B4-192F-757E835D07F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="400050"/>
+          <a:ext cx="7380952" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9184D0CD-41DF-4809-1753-D7B1767D74FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695324" y="3657600"/>
+          <a:ext cx="7343775" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Replace line n1 with: IntFunction&lt;UnaryOperator&gt; inFu = x -&gt; y -&gt; x*y;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Replace line n1 with: IntFunction&lt;IntUnaryOperator&gt; inFu = x -&gt; y -&gt; x*y;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Replace line n1 with: BiFunction&lt;IntUnaryOperator&gt; inFu = x -&gt; y -&gt; x*y;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. Replace line n2 with: IntStream newStream = stream.map(inFu.applyAsInt (10));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,443 +1134,451 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7CF54-6BEF-A946-BB5E-88E53BF8D10B}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>64</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>65</v>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>66</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>73</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>74</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>75</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>67</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>68</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>69</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>70</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>71</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>72</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D40" s="1"/>
@@ -1145,4 +1599,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6577BFF-F115-49CB-A2FB-1D7DE9D330E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56B1680-7189-43F5-BFD0-F5E8F22F8F8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE617B4-5D70-4D65-A429-77A3FA95C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E9F667-041D-4EEB-8C6A-C60EA0840448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="1" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="5" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="examtopics.com Q1" sheetId="2" r:id="rId2"/>
     <sheet name="examtopis.com Q2" sheetId="3" r:id="rId3"/>
+    <sheet name="examtopics.com Q4" sheetId="4" r:id="rId4"/>
+    <sheet name="examtopics.com Q6" sheetId="5" r:id="rId5"/>
+    <sheet name="examtopics.com Q7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -374,6 +377,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -381,9 +387,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,6 +833,603 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CD3794-692D-ADBF-3411-89F40258F941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="9200000" cy="5895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B60939-56F9-8CCB-5A51-835AACE66B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="6381750"/>
+          <a:ext cx="5476875" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>What is the result?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>A. A compilation error occurs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>B. d b e z j</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>C. j z e b d</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>D. z b d e j</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EB12C2-A3D1-544B-9E94-D0E071BB8E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="5161905" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F378B0E-CA51-DFA7-3F34-FABA6E442283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2809875"/>
+          <a:ext cx="5391150" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>What is the result of running the code with the -ea option?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. -10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. An AssertionError is thrown.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283A137D-E55D-E184-D7A2-ADE10BC9AE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="5276190" cy="4247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C835C84D-D964-A563-C548-3F673393B386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="4800601"/>
+          <a:ext cx="7267575" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which code fragment, when inserted at line n1, enables the Birdie class to compile?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. static void fly (Consumer&lt;Bird&gt; bird) { bird :: fly (); }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. static void fly (Consumer&lt;? extends Bird&gt; bird) { bird.accept( ) fly (); }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. static void fly (Supplier&lt;Bird&gt; bird) { bird.get( ) fly (); }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. static void fly (Supplier&lt;? extends Bird&gt; bird) { bird::fly(); }</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304076</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>75540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FC6EB4-8515-BEF2-5EDD-A6B01070A8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7400925"/>
+          <a:ext cx="5790476" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1158,7 +1758,7 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1171,7 +1771,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1782,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1793,7 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1206,7 +1806,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1219,7 +1819,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1830,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1841,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1252,7 +1852,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1863,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1272,7 +1872,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1883,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1294,7 +1894,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1903,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1914,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1927,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1340,7 +1940,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1949,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1958,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1967,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1376,7 +1976,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1387,7 +1987,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1398,7 +1998,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1407,7 +2007,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +2016,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +2027,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +2038,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1449,7 +2049,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +2060,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1471,7 +2071,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1482,7 +2082,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1493,7 +2093,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +2104,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1517,7 +2117,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1528,7 +2128,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1539,7 +2139,7 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1550,7 +2150,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1563,7 +2163,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1574,7 +2174,7 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1605,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6577BFF-F115-49CB-A2FB-1D7DE9D330E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -1629,4 +2229,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E716BE-5B62-4FF8-AEAD-ACC24F2371E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96889AE5-DDFC-445A-A945-963E87F04D97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAADF4E1-280E-4329-B26C-854B1A5DE1DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirokiinoue/git_repositories/EXAM_1Z0-809/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E9F667-041D-4EEB-8C6A-C60EA0840448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE553C5-EA4F-A74A-94F0-D7310595252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="5" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="examtopics.com Q1" sheetId="2" r:id="rId2"/>
-    <sheet name="examtopis.com Q2" sheetId="3" r:id="rId3"/>
-    <sheet name="examtopics.com Q4" sheetId="4" r:id="rId4"/>
-    <sheet name="examtopics.com Q6" sheetId="5" r:id="rId5"/>
-    <sheet name="examtopics.com Q7" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="examtopics.com Q1" sheetId="2" r:id="rId3"/>
+    <sheet name="examtopis.com Q2" sheetId="3" r:id="rId4"/>
+    <sheet name="examtopics.com Q4" sheetId="4" r:id="rId5"/>
+    <sheet name="examtopics.com Q6" sheetId="5" r:id="rId6"/>
+    <sheet name="examtopics.com Q7" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>1.1</t>
   </si>
@@ -275,16 +276,67 @@
   </si>
   <si>
     <t>penso che fosse una domanda simile come la domanda 2 di examtopics.</t>
+  </si>
+  <si>
+    <t>chapter1</t>
+  </si>
+  <si>
+    <t>chapter2</t>
+  </si>
+  <si>
+    <t>chapter3</t>
+  </si>
+  <si>
+    <t>chapter4</t>
+  </si>
+  <si>
+    <t>chapter5</t>
+  </si>
+  <si>
+    <t>chapter6</t>
+  </si>
+  <si>
+    <t>chapter7</t>
+  </si>
+  <si>
+    <t>chapter8</t>
+  </si>
+  <si>
+    <t>chapter9</t>
+  </si>
+  <si>
+    <t>chapter10</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>point per question</t>
+  </si>
+  <si>
+    <t>number of correct answer to pass exam</t>
+  </si>
+  <si>
+    <t>number of correct answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1734,17 +1786,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7CF54-6BEF-A946-BB5E-88E53BF8D10B}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -1757,7 +1807,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -1770,7 +1820,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1781,7 +1831,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1792,7 +1842,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
@@ -1805,7 +1855,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -1818,7 +1868,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1829,7 +1879,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1840,7 +1890,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
@@ -1851,7 +1901,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1862,7 +1912,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -1871,7 +1921,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -1882,7 +1932,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -1893,7 +1943,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1902,7 +1952,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1913,7 +1963,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1926,7 +1976,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -1939,7 +1989,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1948,7 +1998,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1957,7 +2007,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1966,7 +2016,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1975,7 +2025,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -1986,7 +2036,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
@@ -1997,7 +2047,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -2006,7 +2056,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2015,7 +2065,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -2026,7 +2076,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -2037,7 +2087,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -2048,7 +2098,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -2059,7 +2109,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -2070,7 +2120,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>9</v>
       </c>
@@ -2081,7 +2131,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
@@ -2092,7 +2142,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -2103,7 +2153,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>67</v>
       </c>
@@ -2116,7 +2166,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -2127,7 +2177,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -2138,7 +2188,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -2149,7 +2199,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>66</v>
       </c>
@@ -2162,7 +2212,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -2173,7 +2223,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -2202,6 +2252,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881AF88D-4E5A-3448-BAF7-D1D4C472D205}">
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <f>100/68</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <f>C13/C14</f>
+        <v>42.023999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <f>65/C14</f>
+        <v>44.199999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6577BFF-F115-49CB-A2FB-1D7DE9D330E9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2209,14 +2402,14 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56B1680-7189-43F5-BFD0-F5E8F22F8F8C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2224,14 +2417,14 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E716BE-5B62-4FF8-AEAD-ACC24F2371E9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2239,14 +2432,14 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96889AE5-DDFC-445A-A945-963E87F04D97}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2254,22 +2447,22 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAADF4E1-280E-4329-B26C-854B1A5DE1DD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirokiinoue/git_repositories/EXAM_1Z0-809/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE553C5-EA4F-A74A-94F0-D7310595252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B709623-AEB9-E14A-A435-50EC3F361ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>1.1</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Use the Files class to check, read, delete, copy, move, manage metadata of a file or directory</t>
   </si>
   <si>
-    <t>Create worker threads using Runnable, Callable and use an ExecutorService to concurrentyly execute tasks</t>
-  </si>
-  <si>
     <t>Submit queries and read results from the database including creating statements, returning result sets, iterating through the results, and properly closing result sets, statements, and connection</t>
   </si>
   <si>
@@ -236,45 +233,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>12. JDBC (Chapter 10)</t>
   </si>
   <si>
-    <t>13. Localization (Chapter 5)</t>
-  </si>
-  <si>
     <t>11. Concurrency (Chapter 7)</t>
   </si>
   <si>
-    <t>10. NIO.2 (Chpater 9)</t>
-  </si>
-  <si>
-    <t>8. Dates (Chapter 5)</t>
-  </si>
-  <si>
     <t>7. Exception and Assertions (Chapter 6)</t>
   </si>
   <si>
     <t>3. Generics and Collections (Chapter 3)</t>
   </si>
   <si>
-    <t>4. Functional Programming (Chpter 4)</t>
-  </si>
-  <si>
-    <t>5. Functional Programming (Chapter 4)</t>
-  </si>
-  <si>
-    <t>6. Functional Programming (Chapter 4)</t>
-  </si>
-  <si>
-    <t>2. Advanced Class Design (Chapter 1)</t>
-  </si>
-  <si>
-    <t>1. Design Patterns and Principles (Chapter 2)</t>
-  </si>
-  <si>
     <t>penso che fosse una domanda simile come la domanda 2 di examtopics.</t>
   </si>
   <si>
@@ -321,14 +291,235 @@
   </si>
   <si>
     <t>number of correct answer</t>
+  </si>
+  <si>
+    <t>5.  Lambda Built-In Functional Interfaces (Chapter 4 Functional Programming)</t>
+  </si>
+  <si>
+    <t>6.  Java Stream API (Chapter 4 Functional Programming)</t>
+  </si>
+  <si>
+    <t>8. Use Java SE 8 Date/Time API (Chapter 5 Dates, Strings, and Localization)</t>
+  </si>
+  <si>
+    <t>13. Localization (Chapter 5 Dates, Strings, and Localization)</t>
+  </si>
+  <si>
+    <t>Create and manage date-based and time-based events including a combination of date and time into a single object using LocalDate, LocalTime, LocalDateTime, Instant, Period and Duration</t>
+  </si>
+  <si>
+    <t>Describe the interfaces that make up the core of the JDBC API including the Driver, Connection, Statement, and ResultSet interfaces and their relationship to provider implementations</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Use Path interface to operate on file and directory paths</t>
+  </si>
+  <si>
+    <t>Use Stream API with NIO.2</t>
+  </si>
+  <si>
+    <t>10. Java File I/O (NIO.2) (Chpater 9 NIO.2)</t>
+  </si>
+  <si>
+    <t>9. Java I/O Fundamentals (Chapter 8 IO)</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Read and write data from the console</t>
+  </si>
+  <si>
+    <t>Use BufferedReader, BufferedWriter, File, FileReader, FileWriter, FileInputStream, FileOutputStream, OjbectOutputStream, ObjectInputStream, and PrintWriter in the java.io.package.</t>
+  </si>
+  <si>
+    <t>Use try-catch and throw statements</t>
+  </si>
+  <si>
+    <t>Use catch, multi-catch, and finally clauses</t>
+  </si>
+  <si>
+    <t>Use Autoclose resources with a try-with-resources statement</t>
+  </si>
+  <si>
+    <t>1. Java Class Design (Chapter 2 Design Patterns and Principles)</t>
+  </si>
+  <si>
+    <t>2. Advanced Java Class Design (Chapter 1 Advanced Class Design)</t>
+  </si>
+  <si>
+    <t>Create and use a generic class</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Collections Streams and Filters</t>
+  </si>
+  <si>
+    <t>Iterate using for Each methods of Streams and List</t>
+  </si>
+  <si>
+    <t>Use the built-in interfaces included in the java.util.function package such as Predicate, Consumer, Function, and Supplier</t>
+  </si>
+  <si>
+    <t>Develop code that uses primitive versions of functional interfaces</t>
+  </si>
+  <si>
+    <t>Search for data by using search methods of the Stream classes including findFirst, findAny, anyMatch, allMatch, and noneMatch</t>
+  </si>
+  <si>
+    <t>Develop code that uses the Optional class</t>
+  </si>
+  <si>
+    <t>Develop code that uses Stream data methods and calculation methods</t>
+  </si>
+  <si>
+    <t>Sort a collection using Stream API</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>P61 - 65 Implementing Polymorphism</t>
+  </si>
+  <si>
+    <t>P66 - 69 Encapsulating Data(Understanding Design Principles)</t>
+  </si>
+  <si>
+    <t>P5-6 Abstract Classes (Reviewing OCA Concepts)</t>
+  </si>
+  <si>
+    <t>P124 - 143 Using Lists, Sets, Maps, and Queues</t>
+  </si>
+  <si>
+    <t>P143 - 150 Comparator vs. Comparable</t>
+  </si>
+  <si>
+    <t>relative pages on book</t>
+  </si>
+  <si>
+    <t>P184 - 204 Using Streams</t>
+  </si>
+  <si>
+    <t>P152 - 154 Using Method References (Additions in Java 8)</t>
+  </si>
+  <si>
+    <t>4.  Generics and Collections (Chapter 3 Generics and Collections, Chpter 4 Functional Programming)</t>
+  </si>
+  <si>
+    <t>P173 - 182 Working with Built-In Functional Interfaces</t>
+  </si>
+  <si>
+    <t>P180 - 181 Implementing UnaryOperator and BinaryOperator (Working with Built-In Functional Interfaces)</t>
+  </si>
+  <si>
+    <t>P220 - 223 Collecting Using Grouping, Partitionig, and Mapping (Working with Advanced Stream Pipeline Concepts)</t>
+  </si>
+  <si>
+    <t>P296 - 305 Using Try-With-Resources</t>
+  </si>
+  <si>
+    <t>P308 - 314 Working with Assertions</t>
+  </si>
+  <si>
+    <t>P234 - 235 Working with Dates and Times</t>
+  </si>
+  <si>
+    <t>P244 - 251 Working with Periods, Durations, and Instants</t>
+  </si>
+  <si>
+    <t>P471 - 486 Interacting with Files (Interacting with Paths and Files), Understanding File Attributes</t>
+  </si>
+  <si>
+    <t>P513 -518 Connecting to a Database</t>
+  </si>
+  <si>
+    <t>P518 - 536 Obtaining a Statement, Executing a Statement, Getting Data from a ResultSet, Closing Database Resources, Dealing with Exceptions</t>
+  </si>
+  <si>
+    <t>P256 - 258 Picking a Locale (Adding Internationalization and Localization)</t>
+  </si>
+  <si>
+    <t>P258 - 266 Using a Resource Bundle (Adding Internationalization and Localization)</t>
+  </si>
+  <si>
+    <t>Create worker threads using Runnable, Callable and use an ExecutorService to concurrently execute tasks</t>
+  </si>
+  <si>
+    <t>P326 -350 Introducing Threads, Creating Threads with the ExecutorService</t>
+  </si>
+  <si>
+    <t>P255 - 256 Adding Internationalization and Localization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -341,13 +532,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -414,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -429,9 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -441,6 +643,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,469 +1996,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7CF54-6BEF-A946-BB5E-88E53BF8D10B}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>76</v>
+      <c r="C1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>75</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>71</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>74</v>
-      </c>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>69</v>
-      </c>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>9</v>
-      </c>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>68</v>
-      </c>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>65</v>
-      </c>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>58</v>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
+  <mergeCells count="13">
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A21"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2256,7 +2740,7 @@
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2266,7 +2750,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2274,7 +2758,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2282,7 +2766,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2290,7 +2774,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -2298,7 +2782,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2306,7 +2790,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2314,7 +2798,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2322,7 +2806,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2330,7 +2814,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2338,7 +2822,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2346,7 +2830,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <f>SUM(C2:C11)</f>
@@ -2355,7 +2839,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>61.8</v>
@@ -2363,7 +2847,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <f>100/68</f>
@@ -2372,7 +2856,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <f>C13/C14</f>
@@ -2381,7 +2865,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <f>65/C14</f>
@@ -2389,7 +2873,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirokiinoue/git_repositories/EXAM_1Z0-809/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B709623-AEB9-E14A-A435-50EC3F361ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD94E30-DB40-4C39-B990-6A516A10DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="6" activeTab="11" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="examtopics.com Q4" sheetId="4" r:id="rId5"/>
     <sheet name="examtopics.com Q6" sheetId="5" r:id="rId6"/>
     <sheet name="examtopics.com Q7" sheetId="6" r:id="rId7"/>
+    <sheet name="examtopics.com Q8" sheetId="8" r:id="rId8"/>
+    <sheet name="examtopics.com Q9" sheetId="9" r:id="rId9"/>
+    <sheet name="examtopics.com Q10" sheetId="10" r:id="rId10"/>
+    <sheet name="examtopics.com Q11" sheetId="11" r:id="rId11"/>
+    <sheet name="examtopics.com Q12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>1.1</t>
   </si>
@@ -504,6 +509,18 @@
   </si>
   <si>
     <t>P255 - 256 Adding Internationalization and Localization</t>
+  </si>
+  <si>
+    <t>EngineOperator.java</t>
+  </si>
+  <si>
+    <t>Operator.java</t>
+  </si>
+  <si>
+    <t>Engine.java</t>
+  </si>
+  <si>
+    <t>TestClass.java</t>
   </si>
 </sst>
 </file>
@@ -634,15 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -653,6 +661,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,6 +903,380 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A879A253-E7EB-E851-E082-B40D5433FF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="5209524" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52795A98-9877-18BC-BC46-DC4CAD787BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695324" y="2990850"/>
+          <a:ext cx="7296151" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assume the courses.txt is accessible.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which code fragment can be inserted at line n1 to enable the code to print the content of the courses.txt file?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. List&lt;String&gt; fc = Files.list(file);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fc.stream().forEach (s - &gt; System.out.println(s));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Stream&lt;String&gt; fc = Files.readAllLines (file);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fc.forEach (s - &gt; System.out.println(s));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. List&lt;String&gt; fc = readAllLines(file);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fc.stream().forEach (s - &gt; System.out.println(s));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. Stream&lt;String&gt; fc = Files.lines (file);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fc.forEach (s - &gt; System.out.println(s));</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36552</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA386F2-511E-B40A-B241-5E67741689C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7800975"/>
+          <a:ext cx="12380952" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1688,6 +2079,1110 @@
         <a:xfrm>
           <a:off x="685800" y="7400925"/>
           <a:ext cx="5790476" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361305</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92D4E1B-140B-1510-ED49-6A59A22AEA80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="5161905" cy="7038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14D7224-AD44-CA6F-9F5D-00B3367AEAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695324" y="7410450"/>
+          <a:ext cx="5876925" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which two modifications enable the code to compile? (Choose two.)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. At line 1, remove abstract</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. At line 9, insert super ( );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. At line 12, remove public</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. At line 17, insert super (x);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E. At line 17, insert super (); super.side = x;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F. At line 20, use public void area ( ) {</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313686</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>84789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EDED43-4EBE-B6FF-9B64-FF5E07702097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10601325"/>
+          <a:ext cx="5114286" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAC0A31-5130-0199-5A83-783B15533843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695326" y="7200900"/>
+          <a:ext cx="4514850" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which statement is true?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. The program prints several values that total 55.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. The program prints 55.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. A compilation error occurs at line n1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. The program prints nothing.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB6D7C9-DB78-9201-69E8-A349C91A4A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="8400000" cy="6647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28057</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B68BCC9-B65E-2A73-E182-BAA95D86EC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="400050"/>
+          <a:ext cx="4142857" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447019</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66ADB138-FF91-991A-D95F-7D91E226C1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2200275"/>
+          <a:ext cx="5247619" cy="2095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9009</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48125C3-1139-3CCF-552D-59DB5BF83C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4800600"/>
+          <a:ext cx="4123809" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A94E8E7-6F7B-A5EE-FC48-9B1CB7D414B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="9239250"/>
+          <a:ext cx="4486275" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>What is the result?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. The Engine.java file fails to compile.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. The EngineOperator.java file fails to compile.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. The Operator.java file fails to compile.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. ON OFF</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247019</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAD0F3D-9E0A-5A98-3A93-B776753C4D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7200900"/>
+          <a:ext cx="5047619" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208838</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01994E42-A9B6-E5A4-ABE7-96ED26E4DE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11201400"/>
+          <a:ext cx="5695238" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>646762</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C31B2DB-C0AE-753C-2628-D852972F3A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="7504762" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781FF641-AD4E-8235-10C6-5B406125084F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3390900"/>
+          <a:ext cx="5019675" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>What is the result?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. 1John2null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. A NullPointerException is thrown at run time.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227286</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA4E454-65CD-F9C4-566A-E9BE145A1285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7800975"/>
+          <a:ext cx="10514286" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2002,36 +3497,36 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2039,12 +3534,12 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2052,8 +3547,8 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2061,8 +3556,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
@@ -2070,8 +3565,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
@@ -2079,8 +3574,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>114</v>
       </c>
@@ -2088,14 +3583,14 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2103,70 +3598,70 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2174,12 +3669,12 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2187,70 +3682,70 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2258,23 +3753,23 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2282,36 +3777,36 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2319,12 +3814,12 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2334,69 +3829,69 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2404,56 +3899,56 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2461,12 +3956,12 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2474,25 +3969,25 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2500,12 +3995,12 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2513,49 +4008,49 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
       <c r="B48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2563,25 +4058,25 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2589,8 +4084,8 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
       <c r="B51" s="2" t="s">
         <v>125</v>
       </c>
@@ -2598,8 +4093,8 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
       <c r="B52" s="2" t="s">
         <v>126</v>
       </c>
@@ -2607,8 +4102,8 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
       <c r="B53" s="2" t="s">
         <v>127</v>
       </c>
@@ -2616,8 +4111,8 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
       <c r="B54" s="2" t="s">
         <v>128</v>
       </c>
@@ -2625,8 +4120,8 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
       <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
@@ -2634,25 +4129,25 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
       <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2660,12 +4155,12 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
       <c r="B58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2673,14 +4168,14 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2688,12 +4183,12 @@
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
       <c r="B60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2701,12 +4196,12 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2716,22 +4211,84 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2AD10-31E1-459D-80E0-5887C74552E4}">
+  <dimension ref="B2:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3904315-66D3-45C3-8443-D80794A98F86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D932D19-BA28-4D2C-A254-5DD72AF5C71B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2739,16 +4296,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881AF88D-4E5A-3448-BAF7-D1D4C472D205}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>68</v>
       </c>
@@ -2756,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -2764,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -2772,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -2780,7 +4337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -2788,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -2796,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>74</v>
       </c>
@@ -2804,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -2812,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -2820,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -2828,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -2837,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -2845,7 +4402,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -2854,7 +4411,7 @@
         <v>1.4705882352941178</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>82</v>
       </c>
@@ -2863,7 +4420,7 @@
         <v>42.023999999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -2886,7 +4443,7 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2901,7 +4458,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2916,7 +4473,7 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2931,7 +4488,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2946,7 +4503,37 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F515118-0049-497A-811E-50C663FFA2B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA7B15-4BE2-49DD-98B5-97DC8439A950}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD94E30-DB40-4C39-B990-6A516A10DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E774FBF-FB51-4D39-9004-4F3B4BB1A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="6" activeTab="11" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="9" activeTab="13" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="examtopics.com Q10" sheetId="10" r:id="rId10"/>
     <sheet name="examtopics.com Q11" sheetId="11" r:id="rId11"/>
     <sheet name="examtopics.com Q12" sheetId="12" r:id="rId12"/>
+    <sheet name="examtopics.com Q13" sheetId="13" r:id="rId13"/>
+    <sheet name="examtopics.com Q14" sheetId="14" r:id="rId14"/>
+    <sheet name="examtopics.com Q15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>1.1</t>
   </si>
@@ -521,13 +524,22 @@
   </si>
   <si>
     <t>TestClass.java</t>
+  </si>
+  <si>
+    <t>Il risultato dell'esecuzione del codice era "A" ma non sono convinto perché la class HashMap non garantisce l'ordine pertanto la risposta corretta dovrebbe essere "The output cannot be determined ahead of time"</t>
+  </si>
+  <si>
+    <t>Ho fatto una domanda sul CodeRanch:</t>
+  </si>
+  <si>
+    <t>https://coderanch.com/t/776426/certification/HashMap-guarantees-order#3549422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +565,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,10 +653,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -670,8 +691,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1272,6 +1295,648 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36638</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34436012-8488-F9D6-3F22-25FA65CFF9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="11695238" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A39DD4B-3210-BF18-72C0-6BB8B4DC4009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5581650"/>
+          <a:ext cx="12325350" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assume that Projects contains subdirectories that contain .class files and is passed as an argument to the recDelete () method when it is invoked.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>What is the result?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. The method deletes all the .class files in the Projects directory and its subdirectories.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. The method deletes the .class files of the Projects directory only.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. The method executes and does not make any changes to the Projects directory.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. The method throws an IOException.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF94479E-6611-7D7C-938E-699CF73F2EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="8800000" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F537D64-4D41-87F3-9B6F-173BD629B9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="4000501"/>
+          <a:ext cx="8915400" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which modification enables the code to print Try again?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Comment the lines 28, 29 and 30.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Replace line 26 with: } catch (Exception | ArithmeticException | NumberFormatException e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Replace line 26 with: } catch (ArithmeticException | NumberFormatException e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. Replace line 27 with: throw e;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532305</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB844B7-DA5E-23F9-5997-FEEA8C5E41CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7600950"/>
+          <a:ext cx="8761905" cy="3895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>351438</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C479AA6A-4438-A887-31C6-44F1642C6D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="7895238" cy="9285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFB6802-3476-46D5-DF36-F889BE3CD1DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9791699"/>
+          <a:ext cx="5486400" cy="1219201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. {EUROPE = [Italy, Germany], ASIA = [Japan]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. {ASIA = [Japan], EUROPE = [Italy, Germany]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. {EUROPE = [Germany, Italy], ASIA = [Japan]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. {EUROPE = [Germany], EUROPE = [Italy], ASIA = [Japan]}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4211,19 +4876,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4283,12 +4948,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D932D19-BA28-4D2C-A254-5DD72AF5C71B}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412DAB37-FF56-4CC8-BAE7-C5093D8F7482}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BDD86-7C55-41D8-9B39-84768FD26C64}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD5EF1D-15FD-4A97-8FE8-BF8DB23D42DC}">
+  <dimension ref="B57:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B60" r:id="rId1" location="3549422" xr:uid="{8C15148C-4747-4594-850D-CA513F90EBF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -8,26 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E774FBF-FB51-4D39-9004-4F3B4BB1A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7776D6-31B5-4DCD-B5D5-9C1A7CA818A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="9" activeTab="13" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
-    <sheet name="examtopics.com Q1" sheetId="2" r:id="rId3"/>
-    <sheet name="examtopis.com Q2" sheetId="3" r:id="rId4"/>
-    <sheet name="examtopics.com Q4" sheetId="4" r:id="rId5"/>
-    <sheet name="examtopics.com Q6" sheetId="5" r:id="rId6"/>
-    <sheet name="examtopics.com Q7" sheetId="6" r:id="rId7"/>
-    <sheet name="examtopics.com Q8" sheetId="8" r:id="rId8"/>
-    <sheet name="examtopics.com Q9" sheetId="9" r:id="rId9"/>
-    <sheet name="examtopics.com Q10" sheetId="10" r:id="rId10"/>
-    <sheet name="examtopics.com Q11" sheetId="11" r:id="rId11"/>
-    <sheet name="examtopics.com Q12" sheetId="12" r:id="rId12"/>
-    <sheet name="examtopics.com Q13" sheetId="13" r:id="rId13"/>
-    <sheet name="examtopics.com Q14" sheetId="14" r:id="rId14"/>
-    <sheet name="examtopics.com Q15" sheetId="15" r:id="rId15"/>
+    <sheet name="question examtopics" sheetId="17" r:id="rId3"/>
+    <sheet name="examtopics.com Q1" sheetId="2" r:id="rId4"/>
+    <sheet name="examtopis.com Q2" sheetId="3" r:id="rId5"/>
+    <sheet name="examtopics.com Q4" sheetId="4" r:id="rId6"/>
+    <sheet name="examtopics.com Q6" sheetId="5" r:id="rId7"/>
+    <sheet name="examtopics.com Q7" sheetId="6" r:id="rId8"/>
+    <sheet name="examtopics.com Q8" sheetId="8" r:id="rId9"/>
+    <sheet name="examtopics.com Q9" sheetId="9" r:id="rId10"/>
+    <sheet name="examtopics.com Q10" sheetId="10" r:id="rId11"/>
+    <sheet name="examtopics.com Q11" sheetId="11" r:id="rId12"/>
+    <sheet name="examtopics.com Q12" sheetId="12" r:id="rId13"/>
+    <sheet name="examtopics.com Q13" sheetId="13" r:id="rId14"/>
+    <sheet name="examtopics.com Q14" sheetId="14" r:id="rId15"/>
+    <sheet name="examtopics.com Q15" sheetId="15" r:id="rId16"/>
+    <sheet name="examtopics.com Q16" sheetId="16" r:id="rId17"/>
+    <sheet name="examtopics.com Q17" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="221">
   <si>
     <t>1.1</t>
   </si>
@@ -533,6 +536,186 @@
   </si>
   <si>
     <t>https://coderanch.com/t/776426/certification/HashMap-guarantees-order#3549422</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>Q31</t>
+  </si>
+  <si>
+    <t>Q32</t>
+  </si>
+  <si>
+    <t>Q33</t>
+  </si>
+  <si>
+    <t>Q34</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q36</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>Q38</t>
+  </si>
+  <si>
+    <t>Q39</t>
+  </si>
+  <si>
+    <t>Q40</t>
+  </si>
+  <si>
+    <t>Q41</t>
+  </si>
+  <si>
+    <t>Q42</t>
+  </si>
+  <si>
+    <t>Q43</t>
+  </si>
+  <si>
+    <t>Q44</t>
+  </si>
+  <si>
+    <t>Q45</t>
+  </si>
+  <si>
+    <t>Q46</t>
+  </si>
+  <si>
+    <t>Q47</t>
+  </si>
+  <si>
+    <t>Q48</t>
+  </si>
+  <si>
+    <t>Q49</t>
+  </si>
+  <si>
+    <t>Q50</t>
+  </si>
+  <si>
+    <t>Q51</t>
+  </si>
+  <si>
+    <t>Q52</t>
+  </si>
+  <si>
+    <t>Q53</t>
+  </si>
+  <si>
+    <t>Q54</t>
+  </si>
+  <si>
+    <t>Q55</t>
+  </si>
+  <si>
+    <t>Q56</t>
+  </si>
+  <si>
+    <t>Q57</t>
+  </si>
+  <si>
+    <t>Q58</t>
+  </si>
+  <si>
+    <t>Q59</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
 </sst>
 </file>
@@ -682,6 +865,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -691,7 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1933,6 +2116,344 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>D. {EUROPE = [Germany], EUROPE = [Italy], ASIA = [Japan]}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151695</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>75815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C9AAF-2B64-DAC6-7DF7-CC68E4037E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="5638095" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB57FF8-84BC-9420-ACDA-FE0E7BF1608B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3590925"/>
+          <a:ext cx="5638800" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. {1007 = A, 1002 = C, 1001 = B, 1003 = B}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. {1001 = B, 1002 = C, 1003 = B, 1007 = A}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. {1002 = C, 1003 = B, 1007 = A}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. {1007 = A, 1001 = B, 1003 = B, 1002 = C}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6373B8CB-D59D-5C48-7765-809A800634B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="6000000" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FF5876-6FDE-9E4B-D24B-1506E3432329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690560" y="5205411"/>
+          <a:ext cx="11463339" cy="1290639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. The program prints true.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. The program prints false.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. A compilation error occurs. To ensure successful compilation, replace line n1 with: boolean equals (Book obj) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs. To ensure successful compilation, replace line n2 with: System.out.println (b1.equals((Object) b2));</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4185,7 +4706,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4200,7 +4721,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4213,7 +4734,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4222,7 +4743,7 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
@@ -4231,7 +4752,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
@@ -4240,7 +4761,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>114</v>
       </c>
@@ -4249,7 +4770,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4264,7 +4785,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
@@ -4273,7 +4794,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>116</v>
       </c>
@@ -4282,7 +4803,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>117</v>
       </c>
@@ -4291,7 +4812,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>118</v>
       </c>
@@ -4300,7 +4821,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
@@ -4309,7 +4830,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4322,7 +4843,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4335,7 +4856,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -4348,7 +4869,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>103</v>
       </c>
@@ -4357,7 +4878,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>120</v>
       </c>
@@ -4366,7 +4887,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>121</v>
       </c>
@@ -4375,7 +4896,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
@@ -4384,7 +4905,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
@@ -4393,7 +4914,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4406,7 +4927,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
@@ -4419,7 +4940,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -4430,7 +4951,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -4443,7 +4964,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4456,7 +4977,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -4467,7 +4988,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
@@ -4480,7 +5001,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
@@ -4495,7 +5016,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4508,7 +5029,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
@@ -4519,7 +5040,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
@@ -4530,7 +5051,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
@@ -4541,7 +5062,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
@@ -4552,7 +5073,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
@@ -4565,7 +5086,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>124</v>
       </c>
@@ -4574,7 +5095,7 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4587,7 +5108,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
@@ -4598,7 +5119,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +5130,7 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
@@ -4622,7 +5143,7 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
@@ -4635,7 +5156,7 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4648,7 +5169,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -4661,7 +5182,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4674,7 +5195,7 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4687,7 +5208,7 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
@@ -4698,7 +5219,7 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4711,7 +5232,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="2" t="s">
         <v>31</v>
       </c>
@@ -4724,7 +5245,7 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
@@ -4735,7 +5256,7 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4750,7 +5271,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="2" t="s">
         <v>125</v>
       </c>
@@ -4759,7 +5280,7 @@
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="2" t="s">
         <v>126</v>
       </c>
@@ -4768,7 +5289,7 @@
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="2" t="s">
         <v>127</v>
       </c>
@@ -4777,7 +5298,7 @@
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="2" t="s">
         <v>128</v>
       </c>
@@ -4786,7 +5307,7 @@
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
@@ -4795,7 +5316,7 @@
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -4808,7 +5329,7 @@
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
@@ -4821,7 +5342,7 @@
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="2" t="s">
         <v>35</v>
       </c>
@@ -4834,7 +5355,7 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -4849,7 +5370,7 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="2" t="s">
         <v>37</v>
       </c>
@@ -4862,7 +5383,7 @@
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
@@ -4876,11 +5397,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
@@ -4889,6 +5405,11 @@
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4896,103 +5417,170 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2AD10-31E1-459D-80E0-5887C74552E4}">
-  <dimension ref="B2:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA7B15-4BE2-49DD-98B5-97DC8439A950}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>157</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{061D08AE-5AF3-4338-80CD-C38291FC2518}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2AD10-31E1-459D-80E0-5887C74552E4}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{FB2BB302-2B00-4AD0-8F3D-FA5D20198907}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3904315-66D3-45C3-8443-D80794A98F86}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{FED1BF08-0EB2-4CDC-A31D-8780619F62D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D932D19-BA28-4D2C-A254-5DD72AF5C71B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412DAB37-FF56-4CC8-BAE7-C5093D8F7482}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{C8DB2AA3-1A3E-401B-B0C5-F04B7699CDC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BDD86-7C55-41D8-9B39-84768FD26C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412DAB37-FF56-4CC8-BAE7-C5093D8F7482}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{56E7B6E5-0AF7-464F-AE72-2CF29B610ECA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD5EF1D-15FD-4A97-8FE8-BF8DB23D42DC}">
-  <dimension ref="B57:B60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BDD86-7C55-41D8-9B39-84768FD26C64}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{B49F49AF-C3C9-4081-A24E-4B0B3DC4447B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD5EF1D-15FD-4A97-8FE8-BF8DB23D42DC}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>158</v>
@@ -5004,16 +5592,61 @@
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" location="3549422" xr:uid="{8C15148C-4747-4594-850D-CA513F90EBF0}"/>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{FEBFAFFF-78F2-4B54-9578-E334D18728FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D81FE-02C0-49ED-B059-0BA24BF11BE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{A50F47F7-EE09-48AF-8C3A-24CF43B0D60F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604108FC-8C1F-4D82-B2D0-47FC0A35481C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{5F42100B-22F8-477A-A1B0-F29FF5FB7806}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5161,105 +5794,458 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6577BFF-F115-49CB-A2FB-1D7DE9D330E9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D1A8-3580-4C7A-99FA-7B7E73C26D03}">
+  <dimension ref="B2:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'examtopics.com Q1'!A1" display="Q1" xr:uid="{320927E2-3A49-42A9-B806-4D0C16569E2B}"/>
+    <hyperlink ref="B3" location="'examtopis.com Q2'!A1" display="Q2" xr:uid="{D5354C4F-C82A-436C-971A-40289F3A6A81}"/>
+    <hyperlink ref="B5" location="'examtopics.com Q4'!A1" display="Q4" xr:uid="{B7B5F73F-7E45-478D-8461-A877A162266B}"/>
+    <hyperlink ref="B7" location="'examtopics.com Q6'!A1" display="Q6" xr:uid="{7ACF8FDD-BF47-43AD-8350-2CD1B5B52EC5}"/>
+    <hyperlink ref="B8" location="'examtopics.com Q7'!A1" display="Q7" xr:uid="{F7FEBA5A-A886-44AB-9219-8C1F1DE2E767}"/>
+    <hyperlink ref="B9" location="'examtopics.com Q8'!A1" display="Q8" xr:uid="{FB0719E5-3C17-4D8A-9866-988181FC1AB9}"/>
+    <hyperlink ref="B10" location="'examtopics.com Q9'!A1" display="Q9" xr:uid="{B464238B-BCBF-4658-8249-83AC1E371464}"/>
+    <hyperlink ref="B11" location="'examtopics.com Q10'!A1" display="Q10" xr:uid="{7E57F9EB-E5F5-4C54-9F4C-6733DDEA75AF}"/>
+    <hyperlink ref="B12" location="'examtopics.com Q11'!A1" display="Q11" xr:uid="{65B75A06-EB15-4210-9461-7D77907BB2D7}"/>
+    <hyperlink ref="B13" location="'examtopics.com Q12'!A1" display="Q12" xr:uid="{594FF0E8-F9BB-411D-B746-9AA321FE6A1D}"/>
+    <hyperlink ref="B14" location="'examtopics.com Q13'!A1" display="Q13" xr:uid="{49AC14DA-FF80-49CF-8468-033BAFACB8C8}"/>
+    <hyperlink ref="B15" location="'examtopics.com Q14'!A1" display="Q14" xr:uid="{88CC3E0B-D853-40BB-A877-47AB66268970}"/>
+    <hyperlink ref="B16" location="'examtopics.com Q15'!A1" display="Q15" xr:uid="{F7CEADE7-30BA-4921-A731-C9B9FDCA0107}"/>
+    <hyperlink ref="B17" location="'examtopics.com Q16'!A1" display="Q16" xr:uid="{C9BDE500-7C9E-4A50-920C-91DA360037F2}"/>
+    <hyperlink ref="B18" location="'examtopics.com Q17'!A1" display="Q17" xr:uid="{9FB41450-14C3-4B91-BCF7-1D3F85155FAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56B1680-7189-43F5-BFD0-F5E8F22F8F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6577BFF-F115-49CB-A2FB-1D7DE9D330E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{3AF6AAA5-7FC1-402C-A208-2FCE37AB4238}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E716BE-5B62-4FF8-AEAD-ACC24F2371E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56B1680-7189-43F5-BFD0-F5E8F22F8F8C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{755ABDC8-693B-4EEF-BB48-A5C6D7363332}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96889AE5-DDFC-445A-A945-963E87F04D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E716BE-5B62-4FF8-AEAD-ACC24F2371E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{95244C4E-BA26-4459-A657-366704CDFA90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAADF4E1-280E-4329-B26C-854B1A5DE1DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96889AE5-DDFC-445A-A945-963E87F04D97}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{18682747-D032-41AA-ADBB-40F4918B9D3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F515118-0049-497A-811E-50C663FFA2B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAADF4E1-280E-4329-B26C-854B1A5DE1DD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{BC01568B-4422-475A-A3F4-6E8449F256F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA7B15-4BE2-49DD-98B5-97DC8439A950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F515118-0049-497A-811E-50C663FFA2B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{BA8AC898-E567-420C-8C81-2F907FFE799E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7776D6-31B5-4DCD-B5D5-9C1A7CA818A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D352164-5241-4A69-97E5-0D7E81E411F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
@@ -31,6 +31,7 @@
     <sheet name="examtopics.com Q15" sheetId="15" r:id="rId16"/>
     <sheet name="examtopics.com Q16" sheetId="16" r:id="rId17"/>
     <sheet name="examtopics.com Q17" sheetId="18" r:id="rId18"/>
+    <sheet name="examtopics.com Q18" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="221">
   <si>
     <t>1.1</t>
   </si>
@@ -2454,6 +2455,175 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>D. A compilation error occurs. To ensure successful compilation, replace line n2 with: System.out.println (b1.equals((Object) b2));</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36B22EF-606A-355E-9FDA-C70F5DE2DDCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="15190476" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9A9076-FA6F-7C77-2957-27CAC2F39B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5391150"/>
+          <a:ext cx="5381625" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Good day! Test followed by an Exception stack trace</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Good day! followed by an Exception stack trace</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Good day! Test null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs at line n1.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5397,6 +5567,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
@@ -5405,11 +5580,6 @@
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5644,6 +5814,28 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{5F42100B-22F8-477A-A1B0-F29FF5FB7806}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD87D9C-3EDA-49C4-9DCF-35BCDDBEC6DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{44AE163A-3D48-4DFB-844E-8B6C75EB712F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5887,7 +6079,7 @@
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6114,6 +6306,7 @@
     <hyperlink ref="B16" location="'examtopics.com Q15'!A1" display="Q15" xr:uid="{F7CEADE7-30BA-4921-A731-C9B9FDCA0107}"/>
     <hyperlink ref="B17" location="'examtopics.com Q16'!A1" display="Q16" xr:uid="{C9BDE500-7C9E-4A50-920C-91DA360037F2}"/>
     <hyperlink ref="B18" location="'examtopics.com Q17'!A1" display="Q17" xr:uid="{9FB41450-14C3-4B91-BCF7-1D3F85155FAB}"/>
+    <hyperlink ref="B19" location="'examtopics.com Q18'!A1" display="Q18" xr:uid="{14E08291-270B-496F-9BC5-7FA81739C864}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D352164-5241-4A69-97E5-0D7E81E411F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C727133-D076-4231-AB1D-3F0459037F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
@@ -32,6 +32,10 @@
     <sheet name="examtopics.com Q16" sheetId="16" r:id="rId17"/>
     <sheet name="examtopics.com Q17" sheetId="18" r:id="rId18"/>
     <sheet name="examtopics.com Q18" sheetId="19" r:id="rId19"/>
+    <sheet name="examtopics.com Q19" sheetId="20" r:id="rId20"/>
+    <sheet name="examtopics.com Q20" sheetId="21" r:id="rId21"/>
+    <sheet name="examtopics.com Q21" sheetId="22" r:id="rId22"/>
+    <sheet name="examtopics.com Q22" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="221">
   <si>
     <t>1.1</t>
   </si>
@@ -2633,6 +2637,594 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9115037F-3118-1A87-EF25-3D90EBB57AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="371475"/>
+          <a:ext cx="6257925" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which action can be used to load a database driver by using JDBC3.0?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Add the driver class to the META-INF/services folder of the JAR file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Include the JDBC driver class in a jdbc.properties file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Use the java.lang.Class.forName method to load the driver class.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. Use the DriverManager.getDriver method to load the driver class.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74990</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>94938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481ABF85-E604-5181-0835-458C75944625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="9676190" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9BA317-5151-CDC6-6742-1776C95F83C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3190875"/>
+          <a:ext cx="5362575" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assume that the Pics directory does NOT exist.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>What is the result?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. An exception is thrown at run time.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. 2:MyPic.jpeg: MyPic.jpeg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. 3:.:MyPic.jpeg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. 2:Pics: MyPic.jpeg</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599228</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BB5867-E9F9-D989-2A29-890621D676F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="6771428" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F22866-08DB-247E-4A9B-35F9CE64768C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="4591050"/>
+          <a:ext cx="5400675" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which statement is true?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. The program prints 1 2 3 and the order is unpredictable.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. The program prints 1 2 3.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. The program prints 1 1 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2844,6 +3436,253 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265638</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1175A898-F6CC-FC15-40E8-DDD398AD8739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="8495238" cy="2666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1248834-CFA4-F27D-3D6C-24A3D884E404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3200400"/>
+          <a:ext cx="8372475" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which code fragment, when inserted at line 1, enables the code to read the GDP from the user?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. int GDP = Integer.parseInt (br.readline());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. int GDP = br.read();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. int GDP = br.nextInt();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. int GDP = Integer.parseInt (br.next());</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294209</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>37720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D381510E-8E4E-2D80-27AA-2047676C7AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7800975"/>
+          <a:ext cx="8523809" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5567,11 +6406,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
@@ -5580,6 +6414,11 @@
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5847,7 +6686,7 @@
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5985,11 +6824,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C977C945-E71D-40DB-A2B7-6B887B881F15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{45B2CAFC-D136-40E2-99E0-B3CC75126DA6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC9F08F-D54A-48C2-ADD6-04F530C8FFAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{0B80184A-69F9-4EA6-9670-9AFCDABA405F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69F1731-5FC2-419E-99B9-DAAB7F945C9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{3761A70B-A57F-4201-9DC2-AF64DF391F47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C469082-2218-4227-9873-D6429C19ED92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{BBB8D07F-29B8-408C-B6D6-BC1FFB156A4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D1A8-3580-4C7A-99FA-7B7E73C26D03}">
   <dimension ref="B2:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6084,22 +7013,22 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6307,6 +7236,10 @@
     <hyperlink ref="B17" location="'examtopics.com Q16'!A1" display="Q16" xr:uid="{C9BDE500-7C9E-4A50-920C-91DA360037F2}"/>
     <hyperlink ref="B18" location="'examtopics.com Q17'!A1" display="Q17" xr:uid="{9FB41450-14C3-4B91-BCF7-1D3F85155FAB}"/>
     <hyperlink ref="B19" location="'examtopics.com Q18'!A1" display="Q18" xr:uid="{14E08291-270B-496F-9BC5-7FA81739C864}"/>
+    <hyperlink ref="B20" location="'examtopics.com Q19'!A1" display="Q19" xr:uid="{E4D73F18-033A-403E-B07C-A4C917D88E4D}"/>
+    <hyperlink ref="B21" location="'examtopics.com Q20'!A1" display="Q20" xr:uid="{97C8EC9D-44AE-4EE4-9210-3E17ED5DAAC7}"/>
+    <hyperlink ref="B22" location="'examtopics.com Q21'!A1" display="Q21" xr:uid="{B7C389EF-AD39-4D8F-A892-D46E62C83E34}"/>
+    <hyperlink ref="B23" location="'examtopics.com Q22'!A1" display="Q22" xr:uid="{4346D65C-C16B-453D-B0B0-E3FD35BAA9E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C727133-D076-4231-AB1D-3F0459037F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D96E434-3C23-453D-B94C-6E88A49188A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="20" activeTab="25" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,9 @@
     <sheet name="examtopics.com Q20" sheetId="21" r:id="rId21"/>
     <sheet name="examtopics.com Q21" sheetId="22" r:id="rId22"/>
     <sheet name="examtopics.com Q22" sheetId="23" r:id="rId23"/>
+    <sheet name="examtopics.com Q23" sheetId="24" r:id="rId24"/>
+    <sheet name="examtopics.com Q24" sheetId="25" r:id="rId25"/>
+    <sheet name="examtopics.com Q25" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
   <si>
     <t>1.1</t>
   </si>
@@ -3683,6 +3686,513 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>265809</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>75840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CA944D-F88D-DE94-B82C-1E4E4410EFF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="400050"/>
+          <a:ext cx="7123809" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756A6478-8B89-D72F-B13E-70DFB2CDF97C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700086" y="3595687"/>
+          <a:ext cx="11034713" cy="1147763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. A file with the name log.txt is created in the /data directory and the content of the /data/december/log.txt file is copied to it.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. The program executes successfully and does NOT change the file system.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. A FileNotFoundException is thrown at run time.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A NoSuchFileException is thrown at run time.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227628</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C36CFEE-AD50-1444-5572-49BD54BAEEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="228600"/>
+          <a:ext cx="7771428" cy="6657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87F0F45-3B4A-591D-E251-F5EE09F898F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="7172325"/>
+          <a:ext cx="6762750" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. [Java EE: Helen:Houston] [Java ME: Jessy:Chicago, Java ME: Mark:Chicago]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Java EE Java ME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. [Java ME: Jessy:Chicago, Java ME: Mark:Chicago] [Java EE: Helen:Houston]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6B6B0B-1C17-6ECF-8306-186254CD4D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="400050"/>
+          <a:ext cx="7600000" cy="5847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F93F661-7020-88EC-F032-7B6569D4C4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695326" y="6600826"/>
+          <a:ext cx="4324350" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. A compilation error occurs at line n1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D. A compilation error occurs at line n2.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6406,6 +6916,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
@@ -6414,11 +6929,6 @@
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6912,12 +7422,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFEDE27-1E9F-47E3-ACC1-38BEB8FEAB97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{1B9CE3EA-164B-4BC5-8370-3F79D9338022}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BABFCD-116C-4D4C-BC8E-68F7E40450F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{58B36106-5C70-405A-8C1D-E894844B200B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B80E1C-6613-4930-B674-F7EE991F5D29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'question examtopics'!A1" display="back" xr:uid="{F9EB5CD9-43EA-4C0A-815B-2AA409E5F4D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D1A8-3580-4C7A-99FA-7B7E73C26D03}">
   <dimension ref="B2:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7033,7 +7609,7 @@
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7240,6 +7816,7 @@
     <hyperlink ref="B21" location="'examtopics.com Q20'!A1" display="Q20" xr:uid="{97C8EC9D-44AE-4EE4-9210-3E17ED5DAAC7}"/>
     <hyperlink ref="B22" location="'examtopics.com Q21'!A1" display="Q21" xr:uid="{B7C389EF-AD39-4D8F-A892-D46E62C83E34}"/>
     <hyperlink ref="B23" location="'examtopics.com Q22'!A1" display="Q22" xr:uid="{4346D65C-C16B-453D-B0B0-E3FD35BAA9E6}"/>
+    <hyperlink ref="B24" location="'examtopics.com Q23'!A1" display="Q23" xr:uid="{D389947D-6DD3-485F-A7F0-469E9E9367E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1z0-809_topic.xlsx
+++ b/1z0-809_topic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a859432\git_repository\EXAM_1Z0-809\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirokiinoue/git_repositories/EXAM_1Z0-809/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D96E434-3C23-453D-B94C-6E88A49188A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A92775-042F-044F-BCEB-F98B474A65C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="20" activeTab="25" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
+    <workbookView xWindow="1000" yWindow="740" windowWidth="27940" windowHeight="16440" activeTab="1" xr2:uid="{956B1D0D-F1A3-6146-85C0-0D84789ECF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="226">
   <si>
     <t>1.1</t>
   </si>
@@ -264,9 +264,6 @@
     <t>3. Generics and Collections (Chapter 3)</t>
   </si>
   <si>
-    <t>penso che fosse una domanda simile come la domanda 2 di examtopics.</t>
-  </si>
-  <si>
     <t>chapter1</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
     <t>Collections Streams and Filters</t>
   </si>
   <si>
-    <t>Iterate using for Each methods of Streams and List</t>
-  </si>
-  <si>
     <t>Use the built-in interfaces included in the java.util.function package such as Predicate, Consumer, Function, and Supplier</t>
   </si>
   <si>
@@ -724,6 +718,27 @@
   </si>
   <si>
     <t>back</t>
+  </si>
+  <si>
+    <t>1st try</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Use the parallel Fork/Join Framework</t>
+  </si>
+  <si>
+    <t>Use parallel Streams including reduction, decomposition, merging processes, pipelines and performance</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>Filter a collection by using lambda expressions</t>
+  </si>
+  <si>
+    <t>2nd try</t>
   </si>
 </sst>
 </file>
@@ -783,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -827,7 +842,24 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,8 +869,182 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -848,13 +1054,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -869,10 +1072,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -880,8 +1079,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6196,731 +6467,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7CF54-6BEF-A946-BB5E-88E53BF8D10B}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="D2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="F4" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="D8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="C14" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="C22" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>105</v>
+      <c r="C24" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="F24" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>83</v>
+        <v>135</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>106</v>
+      <c r="C26" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>107</v>
+      <c r="C27" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="F27" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>84</v>
+        <v>220</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="F30" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>108</v>
+      <c r="C31" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>109</v>
+      <c r="C32" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>110</v>
+      <c r="C33" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>111</v>
+      <c r="C34" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="C37" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>98</v>
+      <c r="C38" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>99</v>
+      <c r="C39" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="D41" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="C42" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="D44" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="C47" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
       <c r="B54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="F54" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="C56" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
       <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="D58" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="D59" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="36"/>
       <c r="B60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+        <v>147</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="36"/>
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A42:A44"/>
@@ -6929,6 +7352,11 @@
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A59:A62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6941,11 +7369,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6963,31 +7391,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7005,11 +7433,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7027,11 +7455,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7049,11 +7477,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7071,11 +7499,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7093,26 +7521,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7131,11 +7559,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7153,11 +7581,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7175,11 +7603,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7193,138 +7621,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881AF88D-4E5A-3448-BAF7-D1D4C472D205}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <f>SUM(C2:C11)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <f>100/68</f>
         <v>1.4705882352941178</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>100/68</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <f>C13/C14</f>
         <v>42.023999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>D13/D14</f>
+        <v>45.967999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <f>65/C14</f>
+        <v>44.199999999999996</v>
+      </c>
+      <c r="D16">
+        <f>65/D14</f>
         <v>44.199999999999996</v>
       </c>
     </row>
@@ -7340,11 +7817,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7362,11 +7839,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7384,11 +7861,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7406,11 +7883,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7428,11 +7905,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7450,11 +7927,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7470,13 +7947,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B80E1C-6613-4930-B674-F7EE991F5D29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7492,305 +7969,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D1A8-3580-4C7A-99FA-7B7E73C26D03}">
   <dimension ref="B2:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7828,11 +8303,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7850,11 +8325,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7872,11 +8347,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7894,11 +8369,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7916,11 +8391,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7938,11 +8413,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
